--- a/Teacher survey.xlsx
+++ b/Teacher survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tills\Bachelor-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D00C38-3AD4-4B3A-B02D-36743135A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264E0C6E-21E3-4B36-ABFA-70A3167CCAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,7 +1685,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B22 C2:C6 D2:D22 E2:E22 F2:F22 G2:G22 H2:H13 I2:I22 J4:J10 K2:K22 L2:L22 M2:M22 A4:A8 A10:A22 C8:C22 H15:H22 J12 J15:J22" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B22 C2:C6 D2:D22 E2:E22 F2:F22 G2:G22 H2:H13 I2:I22 J4:J6 K2:K22 L2:L22 M2:M22 A4:A8 A10:A22 C8:C22 H15:H22 J12 J15:J22 J8:J10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>